--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/其他制造业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/其他制造业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.691753027465278</v>
+        <v>0.732660613562406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276101839268931</v>
+        <v>0.285763477882879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007167396194922</v>
+        <v>0.007989267035311999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.069475431493437</v>
+        <v>0.076909701535174</v>
       </c>
       <c r="G2" t="n">
-        <v>0.082662304897512</v>
+        <v>0.08059391004807601</v>
       </c>
       <c r="H2" t="n">
-        <v>0.10211745310388</v>
+        <v>0.102954801030538</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02439855797146</v>
+        <v>0.024482642611282</v>
       </c>
       <c r="J2" t="n">
-        <v>0.308246972534722</v>
+        <v>0.267339386437594</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000194884543174</v>
+        <v>0.000223900052626</v>
       </c>
       <c r="L2" t="n">
-        <v>0.010194410360184</v>
+        <v>0.012364411420851</v>
       </c>
       <c r="M2" t="n">
-        <v>0.023293642390055</v>
+        <v>0.026262963381799</v>
       </c>
       <c r="N2" t="n">
-        <v>0.029642240032798</v>
+        <v>0.030715976551864</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005628824072345</v>
+        <v>0.00598547564661</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0462566035503</v>
+        <v>0.036931000714521</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.021382311901646</v>
+        <v>0.024128455231674</v>
       </c>
       <c r="R2" t="n">
-        <v>0.037196195625061</v>
+        <v>0.039460442721985</v>
       </c>
       <c r="S2" t="n">
-        <v>0.154929506115451</v>
+        <v>0.125331833063716</v>
       </c>
       <c r="T2" t="n">
-        <v>0.025983447014588</v>
+        <v>0.030780159674822</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00581237233726</v>
+        <v>0.007973308145009</v>
       </c>
       <c r="V2" t="n">
-        <v>0.053592710317361</v>
+        <v>0.053181877429214</v>
       </c>
       <c r="W2" t="n">
-        <v>0.011252398272724</v>
+        <v>0.013786947564092</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007495481573243</v>
+        <v>0.008182090928752</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005221988963671</v>
+        <v>0.005997357329203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.732660613562406</v>
+        <v>0.72710361574016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.285763477882879</v>
+        <v>0.285792909272301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007989267035311999</v>
+        <v>0.009339390764431001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.076909701535174</v>
+        <v>0.06316246034286301</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08059391004807601</v>
+        <v>0.10236971435897</v>
       </c>
       <c r="H3" t="n">
-        <v>0.102954801030538</v>
+        <v>0.103617885188008</v>
       </c>
       <c r="I3" t="n">
-        <v>0.024482642611282</v>
+        <v>0.030673302188795</v>
       </c>
       <c r="J3" t="n">
-        <v>0.267339386437594</v>
+        <v>0.27289638425984</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000223900052626</v>
+        <v>0.001780265134687</v>
       </c>
       <c r="L3" t="n">
-        <v>0.012364411420851</v>
+        <v>0.013661754944198</v>
       </c>
       <c r="M3" t="n">
-        <v>0.026262963381799</v>
+        <v>0.032987995408938</v>
       </c>
       <c r="N3" t="n">
-        <v>0.030715976551864</v>
+        <v>0.023290431333661</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00598547564661</v>
+        <v>0.004661410014775</v>
       </c>
       <c r="P3" t="n">
-        <v>0.036931000714521</v>
+        <v>0.037760877099287</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.024128455231674</v>
+        <v>0.019607072315388</v>
       </c>
       <c r="R3" t="n">
-        <v>0.039460442721985</v>
+        <v>0.037210673336502</v>
       </c>
       <c r="S3" t="n">
-        <v>0.125331833063716</v>
+        <v>0.102092490612788</v>
       </c>
       <c r="T3" t="n">
-        <v>0.030780159674822</v>
+        <v>0.030538443154405</v>
       </c>
       <c r="U3" t="n">
-        <v>0.007973308145009</v>
+        <v>0.0086358706121</v>
       </c>
       <c r="V3" t="n">
-        <v>0.053181877429214</v>
+        <v>0.064522345989198</v>
       </c>
       <c r="W3" t="n">
-        <v>0.013786947564092</v>
+        <v>0.018031225044976</v>
       </c>
       <c r="X3" t="n">
-        <v>0.008182090928752</v>
+        <v>0.004802865518324</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005997357329203</v>
+        <v>0.005460617365406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.72710361574016</v>
+        <v>0.786567632617058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.285792909272301</v>
+        <v>0.293418520667688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009339390764431001</v>
+        <v>0.012645048480974</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06316246034286301</v>
+        <v>0.06618389238498</v>
       </c>
       <c r="G4" t="n">
-        <v>0.10236971435897</v>
+        <v>0.09474970244486799</v>
       </c>
       <c r="H4" t="n">
-        <v>0.103617885188008</v>
+        <v>0.108368799779198</v>
       </c>
       <c r="I4" t="n">
-        <v>0.030673302188795</v>
+        <v>0.025352181574239</v>
       </c>
       <c r="J4" t="n">
-        <v>0.27289638425984</v>
+        <v>0.213432367382942</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001780265134687</v>
+        <v>0.002215590195123</v>
       </c>
       <c r="L4" t="n">
-        <v>0.013661754944198</v>
+        <v>0.021636307233729</v>
       </c>
       <c r="M4" t="n">
-        <v>0.032987995408938</v>
+        <v>0.043202085624337</v>
       </c>
       <c r="N4" t="n">
-        <v>0.023290431333661</v>
+        <v>0.031541847696746</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004661410014775</v>
+        <v>0.003337286553488</v>
       </c>
       <c r="P4" t="n">
-        <v>0.037760877099287</v>
+        <v>0.033326569929658</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.019607072315388</v>
+        <v>0.018141276268733</v>
       </c>
       <c r="R4" t="n">
-        <v>0.037210673336502</v>
+        <v>0.044152883704352</v>
       </c>
       <c r="S4" t="n">
-        <v>0.102092490612788</v>
+        <v>0.060003913434178</v>
       </c>
       <c r="T4" t="n">
-        <v>0.030538443154405</v>
+        <v>0.036479603654423</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0086358706121</v>
+        <v>0.004969594228759</v>
       </c>
       <c r="V4" t="n">
-        <v>0.064522345989198</v>
+        <v>0.062853739470782</v>
       </c>
       <c r="W4" t="n">
-        <v>0.018031225044976</v>
+        <v>0.023371954700627</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004802865518324</v>
+        <v>0.005376953705582</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.005460617365406</v>
+        <v>0.008672248267537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786567632617058</v>
+        <v>0.430861933722138</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293418520667688</v>
+        <v>0.069279734780642</v>
       </c>
       <c r="E5" t="n">
-        <v>0.012645048480974</v>
+        <v>0.018762485581821</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06618389238498</v>
+        <v>0.018532588688811</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09474970244486799</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.108368799779198</v>
-      </c>
+        <v>0.135896639834516</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.025352181574239</v>
+        <v>0.026909134660424</v>
       </c>
       <c r="J5" t="n">
-        <v>0.213432367382942</v>
+        <v>0.569138066277862</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002215590195123</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.021636307233729</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.043202085624337</v>
-      </c>
+        <v>0.00050566618315</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.031541847696746</v>
+        <v>0.065735376963116</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003337286553488</v>
+        <v>0.06813001946708699</v>
       </c>
       <c r="P5" t="n">
-        <v>0.033326569929658</v>
+        <v>0.110988524855655</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.018141276268733</v>
+        <v>0.016938293485513</v>
       </c>
       <c r="R5" t="n">
-        <v>0.044152883704352</v>
+        <v>0.029974298737773</v>
       </c>
       <c r="S5" t="n">
-        <v>0.060003913434178</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.036479603654423</v>
-      </c>
+        <v>0.295343766927268</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.004969594228759</v>
+        <v>0.001466086958749</v>
       </c>
       <c r="V5" t="n">
-        <v>0.062853739470782</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.023371954700627</v>
-      </c>
+        <v>0.06565535813967301</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.005376953705582</v>
+        <v>0.003227839109261</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.008672248267537</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.430861933722138</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.069279734780642</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.018762485581821</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.018532588688811</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.135896639834516</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.026909134660424</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.569138066277862</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.00050566618315</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.065735376963116</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.06813001946708699</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.110988524855655</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.016938293485513</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.029974298737773</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.295343766927268</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.001466086958749</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.06565535813967301</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.003227839109261</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.004148424797844</v>
       </c>
     </row>
